--- a/biology/Zoologie/Comesomatidae/Comesomatidae.xlsx
+++ b/biology/Zoologie/Comesomatidae/Comesomatidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Comesomatidae sont une famille de nématodes de l'ordre des Araeolaimida. Elle comprend une trentaine de genres et près de 300 espèces décrites selon GBIF       (20 juin 2021)[1]. Comesoma est le genre type.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Comesomatidae sont une famille de nématodes de l'ordre des Araeolaimida. Elle comprend une trentaine de genres et près de 300 espèces décrites selon GBIF       (20 juin 2021). Comesoma est le genre type.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (20 juin 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (20 juin 2021) :
 Acantholaimus Allgén, 1933
 Actarjania Hopper, 1967
 Asymmelaimus Tu, Thanh, Smol &amp; Vanreusel, 2008
@@ -572,9 +586,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (20 juin 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (20 juin 2021) :
 Comesomatinae Filipjev, 1918
 Comesoma Bastian, 1865
 Comesomoides Gourbault, 1980
